--- a/pred_ohlcv/54_21/2020-01-22 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6883.063106557378</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7398.063106557378</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-7226.199306557378</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7208.500506557378</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11026.64570655738</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14864.69980655738</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-13949.88340655738</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13532.69130655738</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-12329.87430655738</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12982.03980655738</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-13157.24086252874</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-13157.57866252874</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14499.21096252874</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-14654.95826252874</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16017.33396252874</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-12432.63661905024</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12119.86461905024</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-11329.29731905024</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>246027.481090395</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>246011.391890395</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>246045.139490395</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>250001.677267234</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>258903.8536028452</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>258458.9536028452</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>258437.6110028452</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>258363.8795028452</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>258176.2620028452</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>259773.1845028452</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>259615.6291028452</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>258986.7611028452</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>259441.2180028452</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>259162.4229028452</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>259323.7132254258</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>258812.2075254258</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>257607.2075254258</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>257715.9096254258</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>258670.6229254258</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>259022.9785254258</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>258959.7137254258</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>258282.0053254258</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>258285.7935254258</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>258123.5611254258</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>256479.3014254258</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>256511.5412254258</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>256493.0435254258</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>256389.2880254258</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>248527.3677236837</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>248486.8279236837</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>248668.0333236837</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>246750.6832236837</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>246750.8832236837</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>247009.9391236838</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>247010.1391236838</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>244545.5477236838</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>244545.7477236838</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>244545.9477236838</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>244616.8842236838</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>244505.2478236838</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>244532.1597236838</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>245182.1597236838</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>245105.3685236838</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>246405.3685236838</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>246371.6749236838</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>246159.3573236838</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>246159.5573236838</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>246614.3024236838</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>246610.8029236838</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>246375.302848129</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>246261.980448129</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>244097.164048129</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>244098.312048129</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>243491.308648129</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>242015.115048129</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>241903.589448129</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>241751.026248129</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>241751.026248129</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>241752.026248129</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>241724.019648129</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>241724.019648129</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>241725.019648129</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>241726.019648129</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>241725.019648129</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>239542.750248129</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>239476.253448129</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>243982.548148129</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6883.063106557378</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7398.063106557378</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-7226.199306557378</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7208.500506557378</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11026.64570655738</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14864.69980655738</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-13949.88340655738</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13532.69130655738</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-12329.87430655738</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12982.03980655738</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-13157.24086252874</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-13157.57866252874</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14499.21096252874</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-14654.95826252874</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16017.33396252874</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-12432.63661905024</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12119.86461905024</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-11329.29731905024</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>261517.5777426472</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>261517.5777426472</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>245298.0304426472</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>245752.604790395</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>246027.481090395</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>246011.391890395</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>246045.139490395</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>245885.537590395</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>245949.537590395</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>245949.537590395</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>245949.537590395</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>238947.537590395</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>238556.537590395</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>238572.599267234</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>238572.599267234</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>238272.599267234</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>242517.711267234</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>250101.677267234</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>250101.677267234</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>250001.677267234</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>258903.8536028452</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>258458.9536028452</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>258437.6110028452</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>258363.8795028452</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>258176.2620028452</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>259773.1845028452</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>259615.6291028452</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>258986.7611028452</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>259441.2180028452</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>259162.4229028452</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>259323.7132254258</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>258812.2075254258</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>257607.2075254258</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>257715.9096254258</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>259022.9785254258</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>258959.7137254258</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>248527.3677236837</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>248486.8279236837</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>248668.0333236837</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>246750.6832236837</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>246750.8832236837</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>247009.9391236838</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>247010.1391236838</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>244545.5477236838</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>244545.7477236838</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>244545.9477236838</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>244616.8842236838</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>244505.2478236838</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>244532.1597236838</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>245182.1597236838</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>245105.3685236838</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>246405.3685236838</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>246371.6749236838</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>246159.3573236838</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>246159.5573236838</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>246614.3024236838</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>246610.8029236838</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>246375.302848129</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>246261.980448129</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>244097.164048129</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>244098.312048129</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>243491.308648129</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>242015.115048129</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>241903.589448129</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>241751.026248129</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>241751.026248129</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>241752.026248129</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>241724.019648129</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>241724.019648129</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>241725.019648129</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>241726.019648129</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>241725.019648129</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>239542.750248129</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
